--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\eclipse-workspace\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC921F6-ECE5-4B84-8746-28CEF485C707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAFFEE1-9A79-4CB7-9FF2-10F9DE76C4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF92AFD9-310E-4759-AECA-60CCAAF50C29}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>firstName</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>postCode</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>alerttext</t>
   </si>
 </sst>
 </file>
@@ -399,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4162A626-19F1-4A17-B0E2-63DD8AEAFEDF}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +423,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -427,6 +436,9 @@
       </c>
       <c r="C2">
         <v>110063</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
